--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB094.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB094.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKLmy\_prog\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26D2BCF-EE47-4F02-BCDE-841FEFEE6D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3806E5-458A-410F-9D32-D65505874334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,6 @@
     <sheet name="暫存檔Work_B094" sheetId="11" r:id="rId4"/>
     <sheet name="條件" sheetId="10" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DBD!$A$8:$G$37</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
@@ -448,10 +445,6 @@
   </si>
   <si>
     <t>股票種類</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key,1=普通股 2=特別股</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -783,6 +776,12 @@
   </si>
   <si>
     <t xml:space="preserve">                     AND M."ClNo"     = WK."ClNo"      -- 做為撥款序號之主要擔保品</t>
+  </si>
+  <si>
+    <t>Key,
+1:普通股
+2:特別股</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1110,6 +1109,45 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1120,45 +1158,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1180,25 +1179,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="DBD"/>
-      <sheetName val="DBS"/>
-      <sheetName val="SP"/>
-      <sheetName val="條件"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1524,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1535,18 +1515,18 @@
     <col min="3" max="3" width="25.88671875" style="8" customWidth="1"/>
     <col min="4" max="4" width="15" style="8" customWidth="1"/>
     <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.21875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" style="32" customWidth="1"/>
-    <col min="9" max="9" width="6.44140625" style="33" customWidth="1"/>
-    <col min="10" max="10" width="53" style="37" customWidth="1"/>
+    <col min="7" max="7" width="57.21875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" style="28" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" style="29" customWidth="1"/>
+    <col min="10" max="10" width="53" style="33" customWidth="1"/>
     <col min="11" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="20" t="s">
         <v>80</v>
       </c>
@@ -1561,8 +1541,8 @@
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1577,12 +1557,12 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
@@ -1593,10 +1573,10 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="12"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
@@ -1607,10 +1587,10 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="42"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -1620,10 +1600,10 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="42"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -1633,10 +1613,10 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="42"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -1664,7 +1644,7 @@
       <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="26" t="s">
         <v>32</v>
       </c>
       <c r="H8" s="17" t="s">
@@ -1673,8 +1653,8 @@
       <c r="I8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="34" t="s">
-        <v>125</v>
+      <c r="J8" s="30" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1694,11 +1674,11 @@
         <v>6</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="35" t="s">
-        <v>126</v>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="31" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1718,17 +1698,17 @@
         <v>2</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="29">
         <v>1</v>
       </c>
-      <c r="J10" s="35" t="s">
-        <v>127</v>
+      <c r="J10" s="31" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1748,17 +1728,17 @@
         <v>3</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="29">
         <v>2</v>
       </c>
-      <c r="J11" s="35" t="s">
-        <v>128</v>
+      <c r="J11" s="31" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1778,17 +1758,17 @@
         <v>4</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="29">
         <v>3</v>
       </c>
-      <c r="J12" s="35" t="s">
-        <v>129</v>
+      <c r="J12" s="31" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1808,17 +1788,17 @@
         <v>2</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="29">
         <v>4</v>
       </c>
-      <c r="J13" s="35" t="s">
-        <v>130</v>
+      <c r="J13" s="31" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1838,17 +1818,17 @@
         <v>50</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="29">
         <v>5</v>
       </c>
-      <c r="J14" s="35" t="s">
-        <v>131</v>
+      <c r="J14" s="31" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1868,17 +1848,17 @@
         <v>2</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="29">
         <v>6</v>
       </c>
-      <c r="J15" s="35" t="s">
-        <v>132</v>
+      <c r="J15" s="31" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -1898,17 +1878,17 @@
         <v>10</v>
       </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="29">
         <v>7</v>
       </c>
-      <c r="J16" s="35" t="s">
-        <v>133</v>
+      <c r="J16" s="31" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -1928,17 +1908,17 @@
         <v>8</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="29">
         <v>8</v>
       </c>
-      <c r="J17" s="35" t="s">
-        <v>134</v>
+      <c r="J17" s="31" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -1958,17 +1938,17 @@
         <v>7</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="29">
         <v>9</v>
       </c>
-      <c r="J18" s="35" t="s">
-        <v>135</v>
+      <c r="J18" s="31" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -1988,17 +1968,17 @@
         <v>10</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="29">
         <v>10</v>
       </c>
-      <c r="J19" s="35" t="s">
-        <v>136</v>
+      <c r="J19" s="31" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="14" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
@@ -2018,17 +1998,17 @@
         <v>7</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="29">
         <v>11</v>
       </c>
-      <c r="J20" s="35" t="s">
-        <v>137</v>
+      <c r="J20" s="31" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2036,7 +2016,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>90</v>
@@ -2048,17 +2028,17 @@
         <v>8</v>
       </c>
       <c r="F21" s="9"/>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="H21" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="29">
         <v>12</v>
       </c>
-      <c r="J21" s="35" t="s">
-        <v>138</v>
+      <c r="J21" s="31" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2066,7 +2046,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>94</v>
@@ -2078,15 +2058,15 @@
         <v>2</v>
       </c>
       <c r="F22" s="9"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32" t="s">
+      <c r="G22" s="27"/>
+      <c r="H22" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="29">
         <v>13</v>
       </c>
-      <c r="J22" s="41" t="s">
-        <v>139</v>
+      <c r="J22" s="37" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -2094,7 +2074,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>95</v>
@@ -2106,17 +2086,17 @@
         <v>10</v>
       </c>
       <c r="F23" s="9"/>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="29">
         <v>14</v>
       </c>
-      <c r="J23" s="35" t="s">
-        <v>140</v>
+      <c r="J23" s="31" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -2124,7 +2104,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>97</v>
@@ -2136,17 +2116,17 @@
         <v>1</v>
       </c>
       <c r="F24" s="9"/>
-      <c r="G24" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" s="32" t="s">
+      <c r="G24" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="H24" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="29">
         <v>15</v>
       </c>
-      <c r="J24" s="35" t="s">
-        <v>141</v>
+      <c r="J24" s="31" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2154,10 +2134,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>3</v>
@@ -2166,15 +2146,15 @@
         <v>3</v>
       </c>
       <c r="F25" s="9"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="I25" s="33">
+      <c r="G25" s="27"/>
+      <c r="H25" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I25" s="29">
         <v>16</v>
       </c>
-      <c r="J25" s="35" t="s">
-        <v>142</v>
+      <c r="J25" s="31" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2182,10 +2162,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>25</v>
@@ -2194,17 +2174,17 @@
         <v>14</v>
       </c>
       <c r="F26" s="9"/>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="H26" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="I26" s="33">
+      <c r="I26" s="29">
         <v>17</v>
       </c>
-      <c r="J26" s="35" t="s">
-        <v>143</v>
+      <c r="J26" s="31" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -2212,10 +2192,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>25</v>
@@ -2224,17 +2204,17 @@
         <v>10</v>
       </c>
       <c r="F27" s="9"/>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="H27" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="I27" s="33">
+      <c r="I27" s="29">
         <v>18</v>
       </c>
-      <c r="J27" s="35" t="s">
-        <v>144</v>
+      <c r="J27" s="31" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="14" customFormat="1" ht="171" x14ac:dyDescent="0.3">
@@ -2242,10 +2222,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>3</v>
@@ -2254,17 +2234,17 @@
         <v>1</v>
       </c>
       <c r="F28" s="9"/>
-      <c r="G28" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="H28" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="I28" s="33">
+      <c r="G28" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28" s="29">
         <v>19</v>
       </c>
-      <c r="J28" s="42" t="s">
-        <v>148</v>
+      <c r="J28" s="38" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="14" customFormat="1" ht="148.19999999999999" x14ac:dyDescent="0.3">
@@ -2272,10 +2252,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>3</v>
@@ -2284,17 +2264,17 @@
         <v>1</v>
       </c>
       <c r="F29" s="9"/>
-      <c r="G29" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="H29" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="I29" s="33">
+      <c r="G29" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" s="29">
         <v>20</v>
       </c>
-      <c r="J29" s="42" t="s">
-        <v>149</v>
+      <c r="J29" s="38" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2302,10 +2282,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>3</v>
@@ -2314,17 +2294,17 @@
         <v>10</v>
       </c>
       <c r="F30" s="9"/>
-      <c r="G30" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="H30" s="32" t="s">
+      <c r="G30" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="29">
         <v>21</v>
       </c>
-      <c r="J30" s="35" t="s">
-        <v>145</v>
+      <c r="J30" s="31" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -2344,17 +2324,17 @@
         <v>8</v>
       </c>
       <c r="F31" s="9"/>
-      <c r="G31" s="31" t="s">
+      <c r="G31" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="H31" s="32" t="s">
+      <c r="H31" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="29">
         <v>22</v>
       </c>
-      <c r="J31" s="35" t="s">
-        <v>146</v>
+      <c r="J31" s="31" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2374,17 +2354,17 @@
         <v>14</v>
       </c>
       <c r="F32" s="9"/>
-      <c r="G32" s="31" t="s">
+      <c r="G32" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H32" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="I32" s="33">
+      <c r="H32" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I32" s="29">
         <v>23</v>
       </c>
-      <c r="J32" s="35" t="s">
-        <v>130</v>
+      <c r="J32" s="31" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2404,17 +2384,17 @@
         <v>5</v>
       </c>
       <c r="F33" s="9"/>
-      <c r="G33" s="31" t="s">
+      <c r="G33" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="H33" s="32" t="s">
+      <c r="H33" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="29">
         <v>24</v>
       </c>
-      <c r="J33" s="35" t="s">
-        <v>147</v>
+      <c r="J33" s="31" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2434,10 +2414,10 @@
         <v>8</v>
       </c>
       <c r="F34" s="9"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="36"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
@@ -2456,10 +2436,10 @@
         <v>6</v>
       </c>
       <c r="F35" s="9"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="36"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="32"/>
     </row>
     <row r="36" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
@@ -2478,10 +2458,10 @@
         <v>8</v>
       </c>
       <c r="F36" s="9"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="36"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
@@ -2500,10 +2480,10 @@
         <v>6</v>
       </c>
       <c r="F37" s="9"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="36"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="32"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
@@ -2663,7 +2643,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2682,93 +2662,93 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="136.109375" style="40" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="39"/>
+    <col min="1" max="1" width="136.109375" style="36" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2787,98 +2767,98 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="136.109375" style="40" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="39"/>
+    <col min="1" max="1" width="136.109375" style="36" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
-        <v>184</v>
-      </c>
-    </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
-        <v>167</v>
+      <c r="A18" s="36" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
